--- a/src/test/resources/spreadsheetData/changeLager/Example.xlsx
+++ b/src/test/resources/spreadsheetData/changeLager/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EclipseWorkspace\New\SeleniumFramework\src\test\resources\spreadsheetData\changeLager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3F5D1F98-EF33-42B2-B036-1CA237804D90}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{391D860B-7C02-4196-A7B2-AFB3AB1EA201}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{506A9C37-F3E9-44B3-8F46-074FAF0AE875}"/>
   </bookViews>
@@ -701,7 +701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D2D1F1-7BA5-4534-88B6-D969E332B0E1}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -833,7 +835,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>

--- a/src/test/resources/spreadsheetData/changeLager/Example.xlsx
+++ b/src/test/resources/spreadsheetData/changeLager/Example.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EclipseWorkspace\New\SeleniumFramework\src\test\resources\spreadsheetData\changeLager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\eclipse_workspaces\SeleniumFramework\src\test\resources\spreadsheetData\changeLager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{391D860B-7C02-4196-A7B2-AFB3AB1EA201}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06FE089-8133-4C67-9252-44473CA1AE40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{506A9C37-F3E9-44B3-8F46-074FAF0AE875}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{506A9C37-F3E9-44B3-8F46-074FAF0AE875}"/>
   </bookViews>
   <sheets>
-    <sheet name="environment" sheetId="1" r:id="rId1"/>
+    <sheet name="system" sheetId="1" r:id="rId1"/>
     <sheet name="test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -224,6 +224,15 @@
   </si>
   <si>
     <t>l33+Ha&gt;&lt;0r@2L33ter.pop</t>
+  </si>
+  <si>
+    <t>sysOpt</t>
+  </si>
+  <si>
+    <t>not used</t>
+  </si>
+  <si>
+    <t>SystemOption</t>
   </si>
 </sst>
 </file>
@@ -340,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,6 +376,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,13 +697,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14B2EB3-AFFD-47CB-9501-FB31585E95E3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -701,9 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D2D1F1-7BA5-4534-88B6-D969E332B0E1}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -734,30 +844,30 @@
       <c r="A1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
